--- a/hackathon/src/test/resources/outputexcel/sportsevents3.xlsx
+++ b/hackathon/src/test/resources/outputexcel/sportsevents3.xlsx
@@ -6,21 +6,36 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sports details" r:id="rId3" sheetId="1"/>
+    <sheet name="Sports details2" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>Housie - Sabka Number Katega-21 Jun</t>
+    <t>Housie - Sabka Number Katega-22 Jun</t>
   </si>
   <si>
-    <t>Mafia - Bin Patti Khelo Humare Saath-21 Jun</t>
+    <t>Mafia - Bin Patti Khelo Humare Saath-22 Jun</t>
   </si>
   <si>
-    <t>VP GAMING TAMBOLA-21 Jun</t>
+    <t>VP GAMING TAMBOLA-22 Jun</t>
+  </si>
+  <si>
+    <t>Prakash Padukone Badminton Schools at Home-22 Jun</t>
+  </si>
+  <si>
+    <t>Session 4 - Endurance Training-27 Jun</t>
+  </si>
+  <si>
+    <t>Virtual Run for Our Superheroes-28 Jun</t>
+  </si>
+  <si>
+    <t>Pedal Strong-28 Jun</t>
+  </si>
+  <si>
+    <t>Session 5 - Boxing Specific Exercises-28 Jun</t>
   </si>
 </sst>
 </file>
@@ -65,7 +80,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:A8"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -86,6 +101,31 @@
         <v>2</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="s">
+        <v>7</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
